--- a/data/results/Wildfire_risk_analysis_results.xlsx
+++ b/data/results/Wildfire_risk_analysis_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrco/Code/DeColanduse/data/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrco/Code/DeCoLandUse/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251D890-BED1-274F-96F8-161A9505E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ACAC4D-3860-1E44-8019-65EDCDB4D94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37040" yWindow="3340" windowWidth="28340" windowHeight="18460" activeTab="1" xr2:uid="{4B44BC70-DFED-A445-9A97-5138A0186887}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{4B44BC70-DFED-A445-9A97-5138A0186887}"/>
   </bookViews>
   <sheets>
     <sheet name="Spot zoning" sheetId="2" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,16 +505,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>20774623</v>
+        <v>23496890</v>
       </c>
       <c r="D2">
-        <v>5133.5</v>
+        <v>5806.2</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,31 +599,31 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <f>C3/'Spot zoning'!B2</f>
-        <v>0.8045977011494253</v>
+        <v>0.84269662921348309</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <f>E3/'Spot zoning'!E2</f>
-        <v>0.84375</v>
+        <v>0.93548387096774188</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3">
-        <v>5680189.6639999999</v>
+        <v>6623885.0829999996</v>
       </c>
       <c r="I3">
-        <v>1403.6</v>
+        <v>1636.8</v>
       </c>
       <c r="J3">
         <f>H3/'Spot zoning'!C2</f>
-        <v>0.27341962662812219</v>
+        <v>0.28190475773602375</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -641,31 +641,31 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <f>C6/'Spot zoning'!B2</f>
-        <v>0.77011494252873558</v>
+        <v>0.8202247191011236</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <f>E6/'Spot zoning'!E2</f>
-        <v>0.84375</v>
+        <v>0.93548387096774188</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>17746653.620000001</v>
+        <v>20029940.969999999</v>
       </c>
       <c r="I6">
-        <v>4385.3</v>
+        <v>4950</v>
       </c>
       <c r="J6">
         <f>H6/'Spot zoning'!C2</f>
-        <v>0.85424672303319305</v>
+        <v>0.85245072730901827</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">

--- a/data/results/Wildfire_risk_analysis_results.xlsx
+++ b/data/results/Wildfire_risk_analysis_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrco/Code/DeCoLandUse/data/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ACAC4D-3860-1E44-8019-65EDCDB4D94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC7D2D4-F76A-8A44-8C4E-B598CD5C31FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="1" xr2:uid="{4B44BC70-DFED-A445-9A97-5138A0186887}"/>
   </bookViews>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
